--- a/data/georgia_census/imereti/samtredia/education_graduates.xlsx
+++ b/data/georgia_census/imereti/samtredia/education_graduates.xlsx
@@ -1816,13 +1816,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2C04204-1776-40A7-BD67-0BC58E489B99}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B114AA4-0ABC-4D54-A179-98B2172D48FF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B18859B8-D434-4393-AB97-F375242366B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B22D5E-13A2-4713-BCAE-2B76616D6A75}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{726E945C-C34B-41D2-A17C-385200404C8B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75F8050A-CC1C-4C1B-935D-D029D9BE61CC}"/>
 </file>